--- a/jobs/Job Referral List.xlsx
+++ b/jobs/Job Referral List.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa83c9b6bf5b5179/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa83c9b6bf5b5179/Desktop/Cheatsheets/CheatSheets/jobs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="11_F25DC773A252ABDACC1048D4419E600A5BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE582190-7ECD-4349-9191-F4BD2F810F0E}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="11_F25DC773A252ABDACC1048D4419E600A5BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7597FC6-7C6E-4247-999F-CDF4E849ACFB}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Referral companies" sheetId="1" r:id="rId1"/>
     <sheet name="Job websites" sheetId="2" r:id="rId2"/>
+    <sheet name="Daily Job Search" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t>Person Name</t>
   </si>
@@ -197,6 +198,39 @@
   </si>
   <si>
     <t>JobSora</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>AWS</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>JPMC</t>
+  </si>
+  <si>
+    <t>Wells Fargo</t>
+  </si>
+  <si>
+    <t>Carta</t>
+  </si>
+  <si>
+    <t>RobinHood</t>
+  </si>
+  <si>
+    <t>Fidelity Investments</t>
+  </si>
+  <si>
+    <t>Berkeley Alternative Markets</t>
   </si>
 </sst>
 </file>
@@ -707,7 +741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35AA26C8-C59D-4623-8AF4-18221E48EDE7}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -784,4 +818,87 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C55D81-8273-45BB-B983-5294D8687DD7}">
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="37.265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>